--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value713.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value713.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.37772313140627</v>
+        <v>1.392592191696167</v>
       </c>
       <c r="B1">
-        <v>2.245808782587536</v>
+        <v>2.623353719711304</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.662677808113002</v>
+        <v>1.483839511871338</v>
       </c>
       <c r="E1">
-        <v>0.8345426805334875</v>
+        <v>0.9000283479690552</v>
       </c>
     </row>
   </sheetData>
